--- a/experimental result/buglist.xlsx
+++ b/experimental result/buglist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\DT2\experimental result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB995E7-B9DD-4184-8F26-6E4D30328654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940FC826-ED3F-4FF6-B8B8-AFCF0816BE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{5344C544-404B-48EF-9156-4A751E55B6D0}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Bug" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Bug!$A$1:$J$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Bug!$A$1:$I$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,29 +35,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="65">
   <si>
     <t>isolation level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Repeatable Read</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>bug id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>report id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bug db</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -68,9 +55,6 @@
     <t>tidb</t>
   </si>
   <si>
-    <t>Read Committed</t>
-  </si>
-  <si>
     <t>bug link</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -79,26 +63,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>other IL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RR</t>
-  </si>
-  <si>
-    <t>RR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -106,13 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NULL</t>
-  </si>
-  <si>
-    <t>NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mysql</t>
   </si>
   <si>
@@ -150,9 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Serializable</t>
-  </si>
-  <si>
     <t>http://bugs.mysql.com/106655</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -168,12 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SER</t>
-  </si>
-  <si>
-    <t>RU</t>
-  </si>
-  <si>
     <t>https://jira.mariadb.org/browse/MDEV-28040</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -243,42 +192,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>new</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>duplicate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reporting unexpected error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>missing expected error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unconfirmed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>incorrect query result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>incorrect database final state</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unexpected blocking</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>false positive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://bugs.mysql.com/107125</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -287,6 +200,88 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RU, RC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Duplicate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>False Positive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Incorrect database state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incorrect query result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reporting unexpected error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Missing expected error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unexpected blocking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verified</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unconfirmed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fixed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RR, SER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC, RR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Isolation Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Read Uncommitted (RU)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Read Committed (RC)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Repeatable Read (RR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Serializable (SER)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -333,13 +328,13 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -444,7 +439,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -460,18 +455,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -481,11 +470,20 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -802,698 +800,606 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E75E4A-723B-4F8F-AADF-4117CB78D579}">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.9140625" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.08203125" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="27.08203125" customWidth="1"/>
-    <col min="9" max="9" width="24.25" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="13" max="13" width="12.1640625" customWidth="1"/>
-    <col min="15" max="15" width="9.9140625" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="4" max="4" width="38.75" customWidth="1"/>
+    <col min="5" max="5" width="9.75" customWidth="1"/>
+    <col min="6" max="6" width="13.58203125" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17.5" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" customWidth="1"/>
+    <col min="13" max="13" width="9.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:13" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="E1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="11"/>
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="9">
-        <v>27922</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>104833</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="28" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" s="12"/>
+      <c r="M2" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="3">
-        <v>104833</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>28</v>
+      <c r="C3" s="3">
+        <v>106629</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="28" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" s="12"/>
+      <c r="M3" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3">
-        <v>26643</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>22</v>
+      <c r="C4" s="3">
+        <v>106655</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="28" x14ac:dyDescent="0.3">
+      <c r="L4" s="12"/>
+      <c r="M4" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3">
-        <v>27992</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>27</v>
+      <c r="C5" s="3">
+        <v>107125</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="28" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="L5" s="12"/>
+      <c r="M5" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="3">
-        <v>28027</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>33</v>
+        <v>3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>26643</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="28" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="3">
-        <v>28092</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>39</v>
+        <v>3</v>
+      </c>
+      <c r="C7" s="7">
+        <v>27922</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3">
+        <v>27992</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="3">
-        <v>28095</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:15" ht="28" x14ac:dyDescent="0.3">
+      <c r="I8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="3">
-        <v>31405</v>
-      </c>
-      <c r="E9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3">
+        <v>28027</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" ht="28" x14ac:dyDescent="0.3">
+      <c r="I9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3">
+        <v>28040</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="3">
-        <v>106655</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" ht="28" x14ac:dyDescent="0.3">
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="3">
-        <v>33315</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>51</v>
+        <v>3</v>
+      </c>
+      <c r="C11" s="3">
+        <v>28140</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="28" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="3">
-        <v>28140</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>45</v>
+        <v>3</v>
+      </c>
+      <c r="C12" s="3">
+        <v>28142</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="28" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="3">
-        <v>34177</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>52</v>
+        <v>4</v>
+      </c>
+      <c r="C13" s="3">
+        <v>28092</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="J13" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="3">
-        <v>28040</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="C14" s="3">
+        <v>28095</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="28" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="3">
-        <v>28142</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>46</v>
+        <v>4</v>
+      </c>
+      <c r="C15" s="3">
+        <v>31405</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="28" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="3">
-        <v>106629</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>23</v>
+        <v>4</v>
+      </c>
+      <c r="C16" s="3">
+        <v>33315</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="28" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="3">
-        <v>107125</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>65</v>
+        <v>4</v>
+      </c>
+      <c r="C17" s="3">
+        <v>34177</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
   <dataConsolidate/>
+  <mergeCells count="5">
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B20" xr:uid="{DF98A303-C8F7-4945-901A-FCB8083FE333}">
-      <formula1>"Serializable, Repeatable Read, Read Committed"</formula1>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G17" xr:uid="{BC095D22-016A-43D2-B479-805C3A9986DA}">
+      <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H20" xr:uid="{BC095D22-016A-43D2-B479-805C3A9986DA}">
-      <formula1>"yes, no"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C20" xr:uid="{74430DE2-981B-4951-B8F9-8BE2B04A608A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B17" xr:uid="{74430DE2-981B-4951-B8F9-8BE2B04A608A}">
       <formula1>"mysql, mariadb, tidb"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J20" xr:uid="{3314B7D0-AFE1-42FF-96B4-A46A41117E33}">
-      <formula1>$N$2:$N$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F20" xr:uid="{51DFB4C1-337E-401B-B107-B7BB5FF83164}">
-      <formula1>$O$2:$O$7</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E17" xr:uid="{51DFB4C1-337E-401B-B107-B7BB5FF83164}">
+      <formula1>$M$2:$M$7</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{FCC8CAE6-3306-48D3-9FD5-2476F0BA821C}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{36C6C022-1191-4519-BB0C-0C3AF324A82C}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{9DFFA9C6-E374-41D2-A5A0-1FE0FACC7BEA}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{A9AAEA86-4BF8-45FA-AD24-66DD115538D9}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{460DC395-F166-4EC9-B167-6ACD4F0A21D9}"/>
-    <hyperlink ref="E7" r:id="rId6" xr:uid="{F59AC238-E8D1-4035-A8DE-CA7CEAE7D490}"/>
-    <hyperlink ref="E8" r:id="rId7" xr:uid="{7B8B8179-B1BD-41F9-8D8B-17304FD71AB0}"/>
-    <hyperlink ref="E9" r:id="rId8" xr:uid="{862CB306-2258-4237-A485-1C505828C6AC}"/>
-    <hyperlink ref="E10" r:id="rId9" xr:uid="{10987038-E975-4AEC-AB3A-36467517F46C}"/>
-    <hyperlink ref="E11" r:id="rId10" xr:uid="{6EE943F5-44D9-41B3-A86A-52976842EEC8}"/>
-    <hyperlink ref="E12" r:id="rId11" xr:uid="{1BE99570-6F39-4CAF-9396-637BD8D4E2D5}"/>
-    <hyperlink ref="E13" r:id="rId12" xr:uid="{136C6ED0-5FFE-4832-A560-E7D02B44AF09}"/>
-    <hyperlink ref="E14" r:id="rId13" xr:uid="{5CBD658A-3B31-4C32-9A6A-8855236F61DC}"/>
-    <hyperlink ref="E15" r:id="rId14" xr:uid="{FD038C87-32BD-45F5-99F9-2CB3D1C0363E}"/>
-    <hyperlink ref="E16" r:id="rId15" xr:uid="{98995C2C-CBCD-47AC-A139-CC0682862960}"/>
-    <hyperlink ref="E17" r:id="rId16" xr:uid="{7510C075-EB80-4D58-B6D4-8432EDAB5195}"/>
+    <hyperlink ref="D7" r:id="rId1" xr:uid="{FCC8CAE6-3306-48D3-9FD5-2476F0BA821C}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{36C6C022-1191-4519-BB0C-0C3AF324A82C}"/>
+    <hyperlink ref="D6" r:id="rId3" xr:uid="{9DFFA9C6-E374-41D2-A5A0-1FE0FACC7BEA}"/>
+    <hyperlink ref="D8" r:id="rId4" xr:uid="{A9AAEA86-4BF8-45FA-AD24-66DD115538D9}"/>
+    <hyperlink ref="D9" r:id="rId5" xr:uid="{460DC395-F166-4EC9-B167-6ACD4F0A21D9}"/>
+    <hyperlink ref="D13" r:id="rId6" xr:uid="{F59AC238-E8D1-4035-A8DE-CA7CEAE7D490}"/>
+    <hyperlink ref="D14" r:id="rId7" xr:uid="{7B8B8179-B1BD-41F9-8D8B-17304FD71AB0}"/>
+    <hyperlink ref="D15" r:id="rId8" xr:uid="{862CB306-2258-4237-A485-1C505828C6AC}"/>
+    <hyperlink ref="D4" r:id="rId9" xr:uid="{10987038-E975-4AEC-AB3A-36467517F46C}"/>
+    <hyperlink ref="D16" r:id="rId10" xr:uid="{6EE943F5-44D9-41B3-A86A-52976842EEC8}"/>
+    <hyperlink ref="D11" r:id="rId11" xr:uid="{1BE99570-6F39-4CAF-9396-637BD8D4E2D5}"/>
+    <hyperlink ref="D17" r:id="rId12" xr:uid="{136C6ED0-5FFE-4832-A560-E7D02B44AF09}"/>
+    <hyperlink ref="D10" r:id="rId13" xr:uid="{5CBD658A-3B31-4C32-9A6A-8855236F61DC}"/>
+    <hyperlink ref="D12" r:id="rId14" xr:uid="{FD038C87-32BD-45F5-99F9-2CB3D1C0363E}"/>
+    <hyperlink ref="D3" r:id="rId15" xr:uid="{98995C2C-CBCD-47AC-A139-CC0682862960}"/>
+    <hyperlink ref="D5" r:id="rId16" xr:uid="{7510C075-EB80-4D58-B6D4-8432EDAB5195}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
